--- a/data/trans_camb/P15A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,92; 1,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 2,16</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 3,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 4,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 1,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 2,42</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-38,53%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-19,07%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-79,38; 81,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-68,05; 113,93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-66,55; 280,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 376,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,92; 78,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,57; 127,46</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 0,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 3,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 1,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,55; 259,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,15; 134,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; 382,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,84; 124,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,55; 64,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,83; 326,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,26; 108,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,19; 41,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,31; 217,34</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; -1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 6,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 3,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 1,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 0,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>295,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,5%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,55; 70,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,58; 49,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,28; -22,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 1338,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,76; 513,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,69; 665,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 169,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,57; 57,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,13; 28,18</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 1,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 1,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 1,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 5,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 1,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 3,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 0,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,54%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,65; 50,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,19; 81,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,49; 68,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,68; 89,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; 378,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,96; 136,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,03; 30,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,11; 103,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,5; 26,71</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 3,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 4,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 1,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; -1,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 2,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; -1,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,38%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,45%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-71,51; 206,02</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-80,16; 146,08</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,47; 236,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,38; 144,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 11,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,57; 111,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,93; 47,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,33; -42,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 2,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 6,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 3,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 6,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 9,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 4,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 3,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 7,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,93</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,71%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,47%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,83; 157,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,66; 343,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,79; 189,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,98; 287,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 445,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,5; 207,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,31; 136,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,33; 294,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,29; 122,26</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 1,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; -1,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; -0,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 1,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; -0,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 1,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 0,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; -1,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,22</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,64%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,3%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,64; 45,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,41; -35,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,0; -5,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,09; 81,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,05; -21,88</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,79; 69,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,68; 29,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,99; -45,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,82; 7,87</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; -0,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 0,7</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 0,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; -0,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; -0,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; -0,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; -0,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; -0,34</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; -0,28</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,24%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,54%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,55%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,31%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,24%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,29%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,48%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,34%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,3; -24,96</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,78; 29,71</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,21; 21,51</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,15; -6,47</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,34; -0,33</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,42; -1,46</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,0; -29,49</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,71; -9,14</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,56; -10,46</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; -0,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; -0,26</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; -0,57</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 0,85</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,46</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,6</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,16</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; -0,18</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; -0,25</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,11%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,89%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,55%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,01; -0,92</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,86; -7,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,56; -16,72</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,17; 36,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,57; 19,82</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,62; 26,33</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,88; 5,63</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,59; -5,73</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,24; -8,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 3,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,16</t>
+          <t>-3,8; 1,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 2,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,16</t>
+          <t>-1,47; 3,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 2,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,42</t>
+          <t>-1,62; 2,13</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,65; 195,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 113,93</t>
+          <t>-70,29; 98,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,59; 244,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 376,44</t>
+          <t>-32,02; 358,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,48; 117,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 127,46</t>
+          <t>-38,44; 114,11</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,01</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,02</t>
+          <t>-1,19; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,19</t>
+          <t>-0,42; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,39</t>
+          <t>-0,26; 2,38</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>42,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>60,16%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 382,78</t>
+          <t>-53,01; 402,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 326,75</t>
+          <t>-16,79; 321,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 217,34</t>
+          <t>-13,51; 216,43</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,2</t>
+          <t>-7,44; -1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,0</t>
+          <t>-0,52; 2,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,63</t>
+          <t>-3,14; 0,54</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-67,74%</t>
+          <t>-68,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>111,93%</t>
+          <t>106,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,5%</t>
+          <t>-35,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,28; -22,74</t>
+          <t>-88,37; -23,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 665,63</t>
+          <t>-36,19; 649,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 28,18</t>
+          <t>-65,48; 26,66</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,0</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,42</t>
+          <t>-4,36; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,68</t>
+          <t>-5,46; 1,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,23</t>
+          <t>-3,34; 1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,91</t>
+          <t>-3,28; 1,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,88</t>
+          <t>-3,0; 0,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,49</t>
+          <t>-3,92; 0,11</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-51,98%</t>
+          <t>-53,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>-30,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-33,69%</t>
+          <t>-45,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-20,48%</t>
+          <t>-26,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-46,54%</t>
+          <t>-52,99%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 50,56</t>
+          <t>-67,73; 67,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,49; 68,18</t>
+          <t>-88,28; 63,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,68; 89,98</t>
+          <t>-80,16; 78,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,96; 136,76</t>
+          <t>-84,76; 89,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 30,47</t>
+          <t>-60,78; 30,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 26,71</t>
+          <t>-82,65; 11,64</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,97</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,44</t>
+          <t>-5,39; 0,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -1,25</t>
+          <t>-7,01; -1,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,15</t>
+          <t>-5,42; -1,16</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-65,68%</t>
+          <t>-65,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-92,49%</t>
+          <t>-93,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-80,45%</t>
+          <t>-80,8%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,92</t>
+          <t>-100,0; 3,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,33; -42,05</t>
+          <t>-95,6; -43,64</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,24</t>
+          <t>-2,56; 3,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,16</t>
+          <t>-1,82; 4,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,93</t>
+          <t>-1,46; 2,87</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>23,68%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 189,28</t>
+          <t>-53,5; 194,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 207,36</t>
+          <t>-33,6; 207,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 122,26</t>
+          <t>-30,53; 120,69</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,34</t>
+          <t>-4,36; -0,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,41</t>
+          <t>-2,94; 1,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,22</t>
+          <t>-2,93; 0,01</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-50,45%</t>
+          <t>-52,65%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-32,3%</t>
+          <t>-38,5%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,0; -5,27</t>
+          <t>-76,32; -9,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 69,24</t>
+          <t>-72,27; 45,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 7,87</t>
+          <t>-67,41; -1,15</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,45</t>
+          <t>-4,1; -0,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,13</t>
+          <t>-3,42; -0,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,28</t>
+          <t>-3,2; -0,61</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-40,54%</t>
+          <t>-53,72%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-46,24%</t>
+          <t>-46,4%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-43,34%</t>
+          <t>-50,47%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 21,51</t>
+          <t>-84,06; -3,62</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-75,42; -1,46</t>
+          <t>-75,27; -2,42</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-65,56; -10,46</t>
+          <t>-75,73; -21,0</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,35; -0,57</t>
+          <t>-2,56; -0,7</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,6</t>
+          <t>-1,07; 0,51</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,37; -0,25</t>
+          <t>-1,55; -0,36</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-39,53%</t>
+          <t>-43,88%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-24,55%</t>
+          <t>-29,15%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-55,56; -16,72</t>
+          <t>-60,18; -20,63</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 26,33</t>
+          <t>-32,79; 21,97</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-38,24; -8,23</t>
+          <t>-43,33; -12,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,9</t>
+          <t>-2,23; 3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,31</t>
+          <t>-3,96; 1,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,76</t>
+          <t>-3,75; 1,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,68</t>
+          <t>-3,4; 2,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,65</t>
+          <t>-2,8; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,97</t>
+          <t>-1,38; 4,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,39</t>
+          <t>-1,79; 2,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,58</t>
+          <t>-2,64; 1,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,13</t>
+          <t>-1,66; 1,96</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 195,34</t>
+          <t>-46,83; 184,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 81,11</t>
+          <t>-80,31; 98,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 98,82</t>
+          <t>-70,49; 103,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 244,55</t>
+          <t>-79,13; 213,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 280,28</t>
+          <t>-70,44; 305,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 358,32</t>
+          <t>-31,46; 353,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 117,86</t>
+          <t>-44,01; 127,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 78,1</t>
+          <t>-61,72; 80,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 114,11</t>
+          <t>-38,29; 97,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,25</t>
+          <t>-1,21; 2,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,04</t>
+          <t>-1,83; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,25</t>
+          <t>-1,21; 3,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,11</t>
+          <t>-1,97; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,32</t>
+          <t>-2,31; 0,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,06</t>
+          <t>-0,31; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,2</t>
+          <t>-1,08; 1,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,38</t>
+          <t>-1,83; 0,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,38</t>
+          <t>-0,29; 2,44</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 259,62</t>
+          <t>-56,53; 299,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,15; 134,42</t>
+          <t>-77,79; 190,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 402,56</t>
+          <t>-57,67; 379,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,84; 124,49</t>
+          <t>-73,55; 149,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,55; 64,81</t>
+          <t>-88,75; 61,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 321,2</t>
+          <t>-14,03; 312,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 108,77</t>
+          <t>-49,04; 127,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 41,72</t>
+          <t>-78,3; 29,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 216,43</t>
+          <t>-19,26; 211,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,53</t>
+          <t>-5,02; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,48</t>
+          <t>-5,3; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -1,21</t>
+          <t>-7,23; -0,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,73</t>
+          <t>1,17; 6,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,24</t>
+          <t>-1,32; 2,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,89</t>
+          <t>-0,68; 3,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,89</t>
+          <t>-0,69; 3,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,32</t>
+          <t>-2,68; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,54</t>
+          <t>-3,04; 0,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 70,14</t>
+          <t>-62,16; 56,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 49,35</t>
+          <t>-67,41; 50,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,37; -23,23</t>
+          <t>-87,78; -14,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,52; 1338,0</t>
+          <t>21,69; 1665,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,76; 513,48</t>
+          <t>-76,7; 575,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 649,98</t>
+          <t>-37,08; 744,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 169,95</t>
+          <t>-19,14; 151,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 57,96</t>
+          <t>-57,08; 68,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 26,66</t>
+          <t>-65,27; 27,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,05</t>
+          <t>-4,29; 2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,99</t>
+          <t>-3,83; 2,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,6</t>
+          <t>-5,59; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,24</t>
+          <t>-2,96; 1,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,58</t>
+          <t>-0,53; 5,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,16</t>
+          <t>-3,53; 1,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,76</t>
+          <t>-2,93; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,04</t>
+          <t>-1,15; 3,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,11</t>
+          <t>-3,89; 0,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 67,41</t>
+          <t>-67,95; 60,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 81,15</t>
+          <t>-57,86; 74,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,28; 63,05</t>
+          <t>-90,09; 53,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-80,16; 78,24</t>
+          <t>-78,56; 108,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 378,99</t>
+          <t>-17,91; 314,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,76; 89,33</t>
+          <t>-85,27; 129,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 30,91</t>
+          <t>-62,99; 28,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 103,95</t>
+          <t>-24,02; 116,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 11,64</t>
+          <t>-84,04; 16,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,27</t>
+          <t>-4,18; 3,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,07</t>
+          <t>-4,54; 1,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,42</t>
+          <t>-6,05; 0,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,02</t>
+          <t>-3,62; 3,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,06</t>
+          <t>-6,03; 0,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -1,27</t>
+          <t>-7,52; -1,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,76</t>
+          <t>-2,6; 2,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,63</t>
+          <t>-4,47; 0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; -1,16</t>
+          <t>-5,38; -1,22</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,51; 206,02</t>
+          <t>-77,17; 161,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-80,16; 146,08</t>
+          <t>-83,2; 135,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 61,75</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-66,21; 192,09</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 78,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-62,47; 236,87</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-91,38; 144,78</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 3,82</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,57; 111,1</t>
+          <t>-49,81; 107,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-78,93; 47,38</t>
+          <t>-80,2; 25,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,6; -43,64</t>
+          <t>-95,88; -37,34</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,35</t>
+          <t>-3,95; 2,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 6,36</t>
+          <t>-0,91; 6,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,33</t>
+          <t>-2,95; 3,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,32</t>
+          <t>-1,23; 5,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 9,9</t>
+          <t>1,43; 10,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,17</t>
+          <t>-1,76; 4,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,37</t>
+          <t>-1,68; 3,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,33</t>
+          <t>1,24; 7,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,87</t>
+          <t>-1,29; 3,18</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-82,83; 157,42</t>
+          <t>-79,4; 198,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 343,87</t>
+          <t>-25,87; 359,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 194,95</t>
+          <t>-54,94; 181,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 287,56</t>
+          <t>-27,41; 257,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,23; 445,75</t>
+          <t>13,33; 438,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 207,59</t>
+          <t>-35,72; 178,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 136,41</t>
+          <t>-35,5; 141,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,33; 294,35</t>
+          <t>21,18; 301,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 120,69</t>
+          <t>-27,25; 138,15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,49</t>
+          <t>-3,46; 1,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -1,12</t>
+          <t>-5,24; -1,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -0,44</t>
+          <t>-4,33; -0,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,57</t>
+          <t>-1,97; 1,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,72</t>
+          <t>-3,6; -0,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,02</t>
+          <t>-2,87; 1,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,81</t>
+          <t>-2,13; 0,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -1,49</t>
+          <t>-3,94; -1,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,01</t>
+          <t>-3,04; -0,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 45,84</t>
+          <t>-60,77; 40,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-89,41; -35,13</t>
+          <t>-89,52; -36,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-76,32; -9,39</t>
+          <t>-76,23; -2,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 81,35</t>
+          <t>-53,04; 83,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-92,05; -21,88</t>
+          <t>-92,95; -19,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-72,27; 45,68</t>
+          <t>-69,96; 52,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 29,94</t>
+          <t>-46,85; 29,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-85,99; -45,67</t>
+          <t>-87,24; -48,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-67,41; -1,15</t>
+          <t>-67,46; -4,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,9</t>
+          <t>-3,99; -0,72</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,7</t>
+          <t>-2,95; 0,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -0,08</t>
+          <t>-4,0; 0,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,28; -0,17</t>
+          <t>-3,41; -0,2</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,19</t>
+          <t>-3,28; -0,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,22</t>
+          <t>-3,33; -0,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,85</t>
+          <t>-3,27; -0,93</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,34</t>
+          <t>-2,79; -0,34</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,61</t>
+          <t>-3,01; -0,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-86,3; -24,96</t>
+          <t>-87,31; -23,43</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 29,71</t>
+          <t>-64,57; 27,32</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-84,06; -3,62</t>
+          <t>-84,1; 1,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-76,15; -6,47</t>
+          <t>-76,47; -1,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -0,33</t>
+          <t>-74,16; -1,43</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-75,27; -2,42</t>
+          <t>-72,48; 3,25</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-77,0; -29,49</t>
+          <t>-76,29; -30,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-62,71; -9,14</t>
+          <t>-64,14; -8,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-75,73; -21,0</t>
+          <t>-72,5; -20,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,02</t>
+          <t>-1,76; -0,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,26</t>
+          <t>-2,04; -0,33</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,56; -0,7</t>
+          <t>-2,58; -0,74</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,85</t>
+          <t>-0,89; 0,8</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,46</t>
+          <t>-1,07; 0,52</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,51</t>
+          <t>-1,0; 0,68</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,16</t>
+          <t>-1,12; 0,13</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,31; -0,18</t>
+          <t>-1,41; -0,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; -0,36</t>
+          <t>-1,53; -0,32</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -0,92</t>
+          <t>-41,63; -0,17</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -7,2</t>
+          <t>-47,55; -8,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-60,18; -20,63</t>
+          <t>-60,25; -20,85</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 36,3</t>
+          <t>-27,75; 33,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 19,82</t>
+          <t>-33,49; 22,16</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 21,97</t>
+          <t>-31,93; 28,88</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 5,63</t>
+          <t>-30,55; 5,15</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -5,73</t>
+          <t>-38,33; -5,57</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-43,33; -12,57</t>
+          <t>-43,6; -11,16</t>
         </is>
       </c>
     </row>
